--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value376.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value376.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.405537246399421</v>
+        <v>1.056318521499634</v>
       </c>
       <c r="B1">
-        <v>2.359112623240407</v>
+        <v>3.670591115951538</v>
       </c>
       <c r="C1">
-        <v>2.509664226760498</v>
+        <v>3.198753595352173</v>
       </c>
       <c r="D1">
-        <v>1.787524139900998</v>
+        <v>2.044086694717407</v>
       </c>
       <c r="E1">
-        <v>0.7235154541861304</v>
+        <v>1.167993903160095</v>
       </c>
     </row>
   </sheetData>
